--- a/app/config/tables/pediatria/forms/pediatria/pediatria.xlsx
+++ b/app/config/tables/pediatria/forms/pediatria/pediatria.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB64B0-7330-4FB5-AE58-17471F930A8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C55F137-B90B-40AE-9108-9E4F688EB525}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="522">
   <si>
     <t>setting_name</t>
   </si>
@@ -367,18 +367,6 @@
     <t>FiveYears</t>
   </si>
   <si>
-    <t>1 - Mother</t>
-  </si>
-  <si>
-    <t>2 - Father</t>
-  </si>
-  <si>
-    <t>4 - Grandparents</t>
-  </si>
-  <si>
-    <t>5 - Other</t>
-  </si>
-  <si>
     <t>VI - Card seen</t>
   </si>
   <si>
@@ -388,45 +376,6 @@
     <t>PC - Lost card</t>
   </si>
   <si>
-    <t>1 - Paulo</t>
-  </si>
-  <si>
-    <t>2 - Justino</t>
-  </si>
-  <si>
-    <t>3 - Domingos</t>
-  </si>
-  <si>
-    <t>4 - Lola</t>
-  </si>
-  <si>
-    <t>1 - Scar</t>
-  </si>
-  <si>
-    <t>2 - Ulcer</t>
-  </si>
-  <si>
-    <t>3 - Papule</t>
-  </si>
-  <si>
-    <t>4 - No scar</t>
-  </si>
-  <si>
-    <t>1 - Participated</t>
-  </si>
-  <si>
-    <t>2 - Did not participate</t>
-  </si>
-  <si>
-    <t>3 - Don't know</t>
-  </si>
-  <si>
-    <t>2 - Mother</t>
-  </si>
-  <si>
-    <t>3 - Other</t>
-  </si>
-  <si>
     <t>BA - Balanta</t>
   </si>
   <si>
@@ -583,18 +532,6 @@
     <t>OU - Outra</t>
   </si>
   <si>
-    <t>5 - Outra</t>
-  </si>
-  <si>
-    <t>1 - Mãe</t>
-  </si>
-  <si>
-    <t>2 - Pai</t>
-  </si>
-  <si>
-    <t>3 - Aunt/uncle</t>
-  </si>
-  <si>
     <t>display.constraint_message.text.portuguese</t>
   </si>
   <si>
@@ -622,42 +559,6 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>3 - Outra</t>
-  </si>
-  <si>
-    <t>2 - Mãe</t>
-  </si>
-  <si>
-    <t>1 - Vaccination card</t>
-  </si>
-  <si>
-    <t>1 - Cartão da vacina</t>
-  </si>
-  <si>
-    <t>6 - Criança maior</t>
-  </si>
-  <si>
-    <t>6 - Older child</t>
-  </si>
-  <si>
-    <t>2 - Ulcera (mandita)</t>
-  </si>
-  <si>
-    <t>1 - Cicatriz</t>
-  </si>
-  <si>
-    <t>3 - Cocula (papla fechado)</t>
-  </si>
-  <si>
-    <t>4 - Nada</t>
-  </si>
-  <si>
-    <t>3 - Tia/tio</t>
-  </si>
-  <si>
-    <t>4 - Avo</t>
-  </si>
-  <si>
     <t>MA - Criança maior</t>
   </si>
   <si>
@@ -667,12 +568,6 @@
     <t>CV - Cabo Verdiano</t>
   </si>
   <si>
-    <t>5 - Eduardo</t>
-  </si>
-  <si>
-    <t>6 - Miro</t>
-  </si>
-  <si>
     <t>BCGR</t>
   </si>
   <si>
@@ -790,15 +685,6 @@
     <t>PC - Perdeu o cartão</t>
   </si>
   <si>
-    <t>1 - Participou</t>
-  </si>
-  <si>
-    <t>2 - Não participou</t>
-  </si>
-  <si>
-    <t>3 - Não sabe</t>
-  </si>
-  <si>
     <t>inputAttributes.autocomplete</t>
   </si>
   <si>
@@ -1562,6 +1448,156 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>habcom</t>
+  </si>
+  <si>
+    <t>saidai</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Aunt/uncle</t>
+  </si>
+  <si>
+    <t>Tia/tio</t>
+  </si>
+  <si>
+    <t>Grandparents</t>
+  </si>
+  <si>
+    <t>Avo</t>
+  </si>
+  <si>
+    <t>NTN - Não tem cartão e não tem vacinas</t>
+  </si>
+  <si>
+    <t>NTS - Não tem cartão, mas tem vacinas</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Justino</t>
+  </si>
+  <si>
+    <t>Domingos</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Miro</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>Cicatriz</t>
+  </si>
+  <si>
+    <t>Ulcer</t>
+  </si>
+  <si>
+    <t>Ulcera (mandita)</t>
+  </si>
+  <si>
+    <t>Papule</t>
+  </si>
+  <si>
+    <t>Cocula (papla fechado)</t>
+  </si>
+  <si>
+    <t>No scar</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Older child</t>
+  </si>
+  <si>
+    <t>Criança maior</t>
+  </si>
+  <si>
+    <t>Participated</t>
+  </si>
+  <si>
+    <t>Participou</t>
+  </si>
+  <si>
+    <t>Did not participate</t>
+  </si>
+  <si>
+    <t>Não participou</t>
+  </si>
+  <si>
+    <t>Vaccination card</t>
+  </si>
+  <si>
+    <t>Cartão da vacina</t>
+  </si>
+  <si>
+    <t>Data desconhecida</t>
+  </si>
+  <si>
+    <t>Status desconhecido</t>
+  </si>
+  <si>
+    <t>Não sabe o número</t>
+  </si>
+  <si>
+    <t>Apenas consulta</t>
+  </si>
+  <si>
+    <t>Admitido para observação</t>
+  </si>
+  <si>
+    <t>Incrustado</t>
+  </si>
+  <si>
+    <t>Nenhum diagnóstico</t>
+  </si>
+  <si>
+    <t>Ainda admitido</t>
+  </si>
+  <si>
+    <t>Viveu descarregado</t>
+  </si>
+  <si>
+    <t>Morreu durante a admissão</t>
+  </si>
+  <si>
+    <t>Deixou</t>
+  </si>
+  <si>
+    <t>Cama desconhecida</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Não realizado</t>
+  </si>
+  <si>
+    <t>Tempo desconhecido</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1670,12 +1706,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,7 +1774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1769,19 +1799,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -2104,7 +2133,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2113,7 +2142,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2153,16 +2182,16 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2170,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2186,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2194,10 +2223,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="D5" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -2213,24 +2242,24 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2270,7 +2299,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
@@ -2291,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="I1" t="s">
         <v>88</v>
@@ -2300,22 +2329,22 @@
         <v>89</v>
       </c>
       <c r="K1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="L1" t="s">
         <v>48</v>
       </c>
       <c r="M1" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="Q1" t="s">
         <v>25</v>
@@ -2329,7 +2358,7 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -4548,7 +4577,7 @@
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
-      <c r="L387" s="23"/>
+      <c r="L387" s="22"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
@@ -4830,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4839,7 +4868,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -4853,7 +4882,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4868,7 +4897,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,7 +4912,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4898,7 +4927,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,7 +4942,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4928,7 +4957,7 @@
         <v>98</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4943,7 +4972,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4958,7 +4987,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,10 +4999,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>111</v>
+        <v>474</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>184</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4985,10 +5014,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>112</v>
+        <v>476</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>185</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,10 +5029,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>186</v>
+        <v>478</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>206</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5015,10 +5044,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>113</v>
+        <v>480</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>207</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,10 +5059,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5044,10 +5073,10 @@
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,24 +5084,28 @@
         <v>59</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>310</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -5082,10 +5115,10 @@
         <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,10 +5129,10 @@
         <v>62</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5107,13 +5140,13 @@
         <v>59</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,10 +5157,10 @@
         <v>63</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,10 +5172,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>118</v>
+        <v>484</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>118</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,10 +5187,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>119</v>
+        <v>485</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>119</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,10 +5202,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>120</v>
+        <v>486</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>120</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5184,10 +5217,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>121</v>
+        <v>487</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>121</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5199,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>211</v>
+        <v>488</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>211</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5214,10 +5247,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,10 +5262,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>122</v>
+        <v>490</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>203</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5244,10 +5277,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>123</v>
+        <v>492</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>202</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,10 +5292,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>124</v>
+        <v>494</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>204</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5274,10 +5307,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>125</v>
+        <v>496</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>205</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5289,10 +5322,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>201</v>
+        <v>498</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>200</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>252</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5319,10 +5352,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>127</v>
+        <v>502</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>253</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,10 +5367,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,10 +5382,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>198</v>
+        <v>504</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>199</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,10 +5397,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>129</v>
+        <v>474</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>197</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,113 +5412,113 @@
         <v>3</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>108</v>
@@ -5494,534 +5527,546 @@
         <v>86</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D53" s="7"/>
+        <v>230</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D54" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D57" s="7"/>
+        <v>236</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D63" s="5"/>
+        <v>277</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D64" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B65" s="7" t="str">
         <f>"111111111"</f>
         <v>111111111</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B66" s="7" t="str">
         <f>"999999999"</f>
         <v>999999999</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>108</v>
@@ -6030,377 +6075,397 @@
         <v>86</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D87" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D88" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D91" s="5"/>
+        <v>277</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D92" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D95" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D96" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D99" s="5"/>
+        <v>277</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D100" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D103" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D104" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
         <v>99999</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="B106" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="B107" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="B108" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="B109" s="7" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="B110" s="7" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="B111" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="B112" s="7" t="str">
         <f>"999"</f>
@@ -6410,12 +6475,12 @@
         <v>85</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B113" s="5" t="str">
         <f>"11"</f>
@@ -6432,7 +6497,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B114" s="5" t="str">
         <f>"12"</f>
@@ -6449,7 +6514,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B115" s="5" t="str">
         <f>"13"</f>
@@ -6466,7 +6531,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B116" s="5" t="str">
         <f>"14"</f>
@@ -6483,7 +6548,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B117" s="5" t="str">
         <f>"15"</f>
@@ -6500,7 +6565,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B118" s="5" t="str">
         <f>"16"</f>
@@ -6517,7 +6582,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B119" s="5" t="str">
         <f>"17"</f>
@@ -6534,7 +6599,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B120" s="5" t="str">
         <f>"18"</f>
@@ -6551,7 +6616,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B121" s="5" t="str">
         <f>"19"</f>
@@ -6568,7 +6633,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="B122" s="5" t="str">
         <f>"999"</f>
@@ -6578,12 +6643,12 @@
         <v>85</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B123" s="7" t="str">
         <f>"21"</f>
@@ -6600,7 +6665,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B124" s="7" t="str">
         <f>"22"</f>
@@ -6617,7 +6682,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B125" s="7" t="str">
         <f>"23"</f>
@@ -6634,7 +6699,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B126" s="7" t="str">
         <f t="shared" ref="B126:D127" si="0">"24"</f>
@@ -6651,7 +6716,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B127" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6668,7 +6733,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B128" s="7" t="str">
         <f>"25"</f>
@@ -6685,7 +6750,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B129" s="7" t="str">
         <f>"26"</f>
@@ -6702,7 +6767,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B130" s="7" t="str">
         <f>"27"</f>
@@ -6719,7 +6784,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B131" s="7" t="str">
         <f>"28"</f>
@@ -6736,7 +6801,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="B132" s="7" t="str">
         <f>"999"</f>
@@ -6746,12 +6811,12 @@
         <v>85</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="B133" s="5" t="str">
         <f>"31"</f>
@@ -6768,7 +6833,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="B134" s="5" t="str">
         <f>"32"</f>
@@ -6785,7 +6850,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="B135" s="5" t="str">
         <f>"33"</f>
@@ -6802,7 +6867,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="B136" s="5" t="str">
         <f>"34"</f>
@@ -6819,7 +6884,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="B137" s="5" t="str">
         <f>"35"</f>
@@ -6836,7 +6901,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="B138" s="5" t="str">
         <f>"999"</f>
@@ -6846,12 +6911,12 @@
         <v>85</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B139" s="7" t="str">
         <f>"42"</f>
@@ -6868,7 +6933,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B140" s="7" t="str">
         <f>"43"</f>
@@ -6885,7 +6950,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B141" s="7" t="str">
         <f>"44"</f>
@@ -6902,7 +6967,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="B142" s="7" t="str">
         <f>"999"</f>
@@ -6912,12 +6977,12 @@
         <v>85</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B143" s="5" t="str">
         <f>"71"</f>
@@ -6934,7 +6999,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B144" s="5" t="str">
         <f>"72"</f>
@@ -6951,7 +7016,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B145" s="5" t="str">
         <f>"73"</f>
@@ -6968,7 +7033,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B146" s="5" t="str">
         <f>"74"</f>
@@ -6985,7 +7050,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B147" s="5" t="str">
         <f>"75"</f>
@@ -7002,7 +7067,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B148" s="5" t="str">
         <f>"76"</f>
@@ -7019,7 +7084,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B149" s="5" t="str">
         <f>"77"</f>
@@ -7036,7 +7101,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B150" s="5" t="str">
         <f>"78"</f>
@@ -7053,7 +7118,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B151" s="5" t="str">
         <f>"79"</f>
@@ -7070,7 +7135,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="B152" s="5" t="str">
         <f>"999"</f>
@@ -7080,12 +7145,12 @@
         <v>85</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="B153" s="7" t="str">
         <f>"92"</f>
@@ -7102,7 +7167,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="B154" s="7" t="str">
         <f>"93"</f>
@@ -7119,7 +7184,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="B155" s="7" t="str">
         <f>"94"</f>
@@ -7136,7 +7201,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="B156" s="7" t="str">
         <f>"999"</f>
@@ -7146,761 +7211,819 @@
         <v>85</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B157" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B158" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B159" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B160" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B161" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B162" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B163" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B164" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B165" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="B166" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>351</v>
-      </c>
       <c r="C168" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D168" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D169" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B170" s="21" t="str">
+      <c r="B170" s="5" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D170" s="21" t="s">
-        <v>241</v>
+      <c r="D170" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D171" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D172" s="7"/>
+        <v>341</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D173" s="7"/>
+        <v>342</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D174" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D175" s="5"/>
+        <v>320</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D176" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D177" s="5"/>
+        <v>322</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D178" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D179" s="5"/>
+        <v>324</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D180" s="5"/>
+        <v>325</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D181" s="5"/>
+        <v>326</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D182" s="5"/>
+        <v>327</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D183" s="5"/>
+        <v>328</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D184" s="7"/>
+        <v>334</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D185" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D186" s="5"/>
+        <v>344</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D187" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D188" s="5"/>
+        <v>346</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D189" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D204" s="7"/>
+        <v>355</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D205" s="5"/>
+        <v>347</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D206" s="5"/>
+        <v>344</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D207" s="5"/>
+        <v>345</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D208" s="5"/>
+        <v>346</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D209" s="7"/>
+        <v>378</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>379</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="D211" s="7"/>
+        <v>380</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -7910,124 +8033,124 @@
         <v>85</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>107</v>
@@ -8036,37 +8159,41 @@
         <v>85</v>
       </c>
       <c r="D221" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="C222" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D222" s="5"/>
+        <v>390</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="D223" s="7"/>
+        <v>379</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -8076,217 +8203,217 @@
         <v>85</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
-      <c r="C225" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>488</v>
+      <c r="C225" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C226" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="D226" s="28" t="s">
-        <v>489</v>
+      <c r="C226" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="D226" s="27" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C227" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="D227" s="28" t="s">
-        <v>490</v>
+      <c r="C227" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C228" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="D228" s="28" t="s">
-        <v>491</v>
+      <c r="C228" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="D228" s="27" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C229" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="D229" s="28" t="s">
-        <v>492</v>
+      <c r="C229" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C230" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="D230" s="28" t="s">
-        <v>493</v>
+      <c r="C230" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C231" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>494</v>
+      <c r="C231" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C232" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="D232" s="28" t="s">
-        <v>495</v>
+      <c r="C232" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C233" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="D233" s="28" t="s">
-        <v>496</v>
+      <c r="C233" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C234" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="D234" s="28" t="s">
-        <v>497</v>
+      <c r="C234" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="D234" s="27" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C235" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="D235" s="28" t="s">
-        <v>498</v>
+      <c r="C235" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="D235" s="27" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C236" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="D236" s="28" t="s">
-        <v>499</v>
+      <c r="C236" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>500</v>
+      <c r="C237" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C238" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="D238" s="28" t="s">
-        <v>501</v>
+      <c r="C238" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="D238" s="27" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8445,7 @@
         <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8326,10 +8453,10 @@
         <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -8363,7 +8490,7 @@
         <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8377,7 +8504,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -8387,9 +8514,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:XFD177"/>
+  <dimension ref="A1:XFD179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -8409,7 +8536,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -8428,7 +8555,7 @@
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>67</v>
@@ -8439,7 +8566,7 @@
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>67</v>
@@ -8505,7 +8632,7 @@
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>17</v>
@@ -8516,7 +8643,7 @@
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>17</v>
@@ -24907,7 +25034,7 @@
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>8</v>
@@ -41399,7 +41526,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>8</v>
@@ -41410,7 +41537,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
@@ -41421,7 +41548,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>8</v>
@@ -41432,7 +41559,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>67</v>
@@ -41498,10 +41625,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>54</v>
+        <v>472</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C31" s="12" t="b">
         <v>0</v>
@@ -41509,32 +41636,32 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C32" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>57</v>
+      <c r="A33" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C33" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>50</v>
+      <c r="A34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C34" s="12" t="b">
         <v>0</v>
@@ -41542,10 +41669,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C35" s="12" t="b">
         <v>0</v>
@@ -41553,7 +41680,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>8</v>
@@ -41564,7 +41691,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>8</v>
@@ -41575,32 +41702,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C38" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>32</v>
+      <c r="A39" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C39" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>265</v>
+      <c r="A40" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C40" s="12" t="b">
         <v>0</v>
@@ -41608,10 +41735,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C41" s="12" t="b">
         <v>0</v>
@@ -41619,21 +41746,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C42" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>43</v>
+      <c r="A43" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C43" s="12" t="b">
         <v>0</v>
@@ -41641,7 +41768,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>18</v>
@@ -41652,21 +41779,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>483</v>
+        <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C45" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>21</v>
+      <c r="A46" s="13" t="s">
+        <v>445</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C46" s="12" t="b">
         <v>0</v>
@@ -41674,10 +41801,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="12" t="b">
         <v>0</v>
@@ -41685,10 +41812,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="12" t="b">
         <v>0</v>
@@ -41696,10 +41823,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="12" t="b">
         <v>0</v>
@@ -41707,10 +41834,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C50" s="12" t="b">
         <v>0</v>
@@ -41718,7 +41845,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>17</v>
@@ -41729,7 +41856,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>17</v>
@@ -41740,10 +41867,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C53" s="12" t="b">
         <v>0</v>
@@ -41751,32 +41878,32 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C54" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>30</v>
+      <c r="A55" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C55" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>387</v>
+      <c r="A56" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C56" s="12" t="b">
         <v>0</v>
@@ -41784,7 +41911,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>8</v>
@@ -41794,11 +41921,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>33</v>
+      <c r="A58" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C58" s="12" t="b">
         <v>0</v>
@@ -41806,7 +41933,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>18</v>
@@ -41817,7 +41944,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>18</v>
@@ -41828,7 +41955,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>18</v>
@@ -41839,7 +41966,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>18</v>
@@ -41850,7 +41977,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>18</v>
@@ -41861,7 +41988,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>18</v>
@@ -41872,7 +41999,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>18</v>
@@ -41882,8 +42009,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>38</v>
+      <c r="A66" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>18</v>
@@ -41893,8 +42020,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>39</v>
+      <c r="A67" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>18</v>
@@ -41905,7 +42032,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>18</v>
@@ -41916,7 +42043,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>18</v>
@@ -41926,19 +42053,19 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="15" t="b">
-        <v>1</v>
+      <c r="A70" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>8</v>
@@ -41949,10 +42076,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C72" s="15" t="b">
         <v>1</v>
@@ -41960,7 +42087,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>346</v>
+        <v>119</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>8</v>
@@ -41971,10 +42098,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>134</v>
+        <v>308</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C74" s="15" t="b">
         <v>1</v>
@@ -41982,7 +42109,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>344</v>
+        <v>117</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>8</v>
@@ -41993,10 +42120,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="C76" s="15" t="b">
         <v>1</v>
@@ -42004,10 +42131,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C77" s="15" t="b">
         <v>1</v>
@@ -42015,10 +42142,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="C78" s="15" t="b">
         <v>1</v>
@@ -42026,7 +42153,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>67</v>
@@ -42037,10 +42164,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>96</v>
+        <v>305</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="C80" s="15" t="b">
         <v>1</v>
@@ -42048,21 +42175,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C81" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>319</v>
+      <c r="A82" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C82" s="15" t="b">
         <v>1</v>
@@ -42070,10 +42197,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C83" s="15" t="b">
         <v>1</v>
@@ -42081,10 +42208,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>323</v>
+        <v>134</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C84" s="15" t="b">
         <v>1</v>
@@ -42092,10 +42219,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>152</v>
+        <v>285</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C85" s="15" t="b">
         <v>1</v>
@@ -42103,10 +42230,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C86" s="15" t="b">
         <v>1</v>
@@ -42114,21 +42241,21 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C87" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>290</v>
+      <c r="A88" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="C88" s="15" t="b">
         <v>1</v>
@@ -42136,7 +42263,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>67</v>
@@ -42147,7 +42274,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>67</v>
@@ -42158,7 +42285,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>67</v>
@@ -42169,7 +42296,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>67</v>
@@ -42180,7 +42307,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>67</v>
@@ -42191,7 +42318,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>67</v>
@@ -42202,10 +42329,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>339</v>
+        <v>260</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C95" s="15" t="b">
         <v>1</v>
@@ -42213,10 +42340,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="C96" s="15" t="b">
         <v>1</v>
@@ -42224,10 +42351,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="C97" s="15" t="b">
         <v>1</v>
@@ -42235,10 +42362,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="C98" s="15" t="b">
         <v>1</v>
@@ -42246,10 +42373,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="C99" s="15" t="b">
         <v>1</v>
@@ -42257,21 +42384,21 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="C100" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
-        <v>139</v>
+      <c r="A101" s="15" t="s">
+        <v>299</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C101" s="15" t="b">
         <v>1</v>
@@ -42279,10 +42406,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C102" s="15" t="b">
         <v>1</v>
@@ -42290,10 +42417,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C103" s="15" t="b">
         <v>1</v>
@@ -42301,10 +42428,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>333</v>
+        <v>137</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C104" s="15" t="b">
         <v>1</v>
@@ -42312,10 +42439,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C105" s="15" t="b">
         <v>1</v>
@@ -42323,10 +42450,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>321</v>
+        <v>128</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C106" s="15" t="b">
         <v>1</v>
@@ -42334,10 +42461,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C107" s="15" t="b">
         <v>1</v>
@@ -42345,10 +42472,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C108" s="15" t="b">
         <v>1</v>
@@ -42356,10 +42483,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C109" s="15" t="b">
         <v>1</v>
@@ -42367,10 +42494,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C110" s="15" t="b">
         <v>1</v>
@@ -42378,10 +42505,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C111" s="15" t="b">
         <v>1</v>
@@ -42389,10 +42516,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C112" s="15" t="b">
         <v>1</v>
@@ -42400,10 +42527,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>149</v>
+        <v>284</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C113" s="15" t="b">
         <v>1</v>
@@ -42411,10 +42538,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C114" s="15" t="b">
         <v>1</v>
@@ -42422,10 +42549,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C115" s="15" t="b">
         <v>1</v>
@@ -42433,10 +42560,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C116" s="15" t="b">
         <v>1</v>
@@ -42444,10 +42571,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C117" s="15" t="b">
         <v>1</v>
@@ -42455,10 +42582,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>320</v>
+        <v>123</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C118" s="15" t="b">
         <v>1</v>
@@ -42466,10 +42593,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C119" s="15" t="b">
         <v>1</v>
@@ -42477,10 +42604,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C120" s="15" t="b">
         <v>1</v>
@@ -42488,10 +42615,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C121" s="15" t="b">
         <v>1</v>
@@ -42499,10 +42626,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>328</v>
+        <v>125</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C122" s="15" t="b">
         <v>1</v>
@@ -42510,10 +42637,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>153</v>
+        <v>290</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C123" s="15" t="b">
         <v>1</v>
@@ -42521,10 +42648,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>331</v>
+        <v>136</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C124" s="15" t="b">
         <v>1</v>
@@ -42532,10 +42659,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C125" s="15" t="b">
         <v>1</v>
@@ -42543,32 +42670,32 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>332</v>
+        <v>138</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C126" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="14" t="b">
-        <v>0</v>
+      <c r="A127" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" s="14" t="b">
         <v>0</v>
@@ -42576,7 +42703,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>8</v>
@@ -42587,7 +42714,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>480</v>
+        <v>330</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>8</v>
@@ -42597,22 +42724,22 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B131" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C131" s="18" t="b">
-        <v>1</v>
+      <c r="A131" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C132" s="18" t="b">
         <v>1</v>
@@ -42620,183 +42747,183 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>481</v>
+        <v>332</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C133" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="B134" s="29" t="s">
+      <c r="A134" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B135" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C134" s="29" t="b">
+      <c r="C135" s="28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
-        <v>505</v>
-      </c>
-      <c r="B135" s="30" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="B136" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C135" s="30" t="b">
+      <c r="C136" s="29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="B136" s="24" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="B137" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="24" t="b">
+      <c r="C137" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="B137" s="24" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="B138" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="24" t="b">
+      <c r="C138" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="B138" s="24" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="B139" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="24" t="b">
+      <c r="C139" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="B139" s="24" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="B140" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="24" t="b">
+      <c r="C140" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="B140" s="24" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="B141" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="24" t="b">
+      <c r="C141" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="B141" s="24" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B142" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="24" t="b">
+      <c r="C142" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="B142" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C142" s="25" t="b">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C143" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="B143" s="25" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B144" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="25" t="b">
+      <c r="C144" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="B144" s="25" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="B145" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="25" t="b">
+      <c r="C145" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="B145" s="22" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B146" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C145" s="22" t="b">
+      <c r="C146" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="B146" s="22" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="B147" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="22" t="b">
+      <c r="C147" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="B147" s="22" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B148" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="19" t="b">
+      <c r="C148" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>8</v>
@@ -42807,7 +42934,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>8</v>
@@ -42818,7 +42945,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>476</v>
+        <v>357</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>8</v>
@@ -42829,10 +42956,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C152" s="19" t="b">
         <v>0</v>
@@ -42840,7 +42967,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>17</v>
@@ -42851,7 +42978,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>17</v>
@@ -42862,7 +42989,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>17</v>
@@ -42873,10 +43000,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C156" s="19" t="b">
         <v>0</v>
@@ -42884,10 +43011,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C157" s="19" t="b">
         <v>0</v>
@@ -42895,7 +43022,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>17</v>
@@ -42906,7 +43033,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>17</v>
@@ -42917,10 +43044,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C160" s="19" t="b">
         <v>0</v>
@@ -42928,10 +43055,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C161" s="19" t="b">
         <v>0</v>
@@ -42939,10 +43066,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C162" s="19" t="b">
         <v>0</v>
@@ -42950,7 +43077,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>67</v>
@@ -42961,32 +43088,32 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C164" s="19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C165" s="10" t="b">
-        <v>1</v>
+      <c r="A165" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C166" s="10" t="b">
         <v>1</v>
@@ -42994,10 +43121,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>477</v>
+        <v>359</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C167" s="10" t="b">
         <v>1</v>
@@ -43005,21 +43132,21 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C168" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
-        <v>466</v>
+      <c r="A169" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="C169" s="10" t="b">
         <v>1</v>
@@ -43027,32 +43154,32 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="C170" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="11" t="s">
-        <v>422</v>
+      <c r="A171" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C171" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="10" t="s">
-        <v>424</v>
+      <c r="A172" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C172" s="10" t="b">
         <v>1</v>
@@ -43060,10 +43187,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C173" s="10" t="b">
         <v>1</v>
@@ -43071,10 +43198,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C174" s="10" t="b">
         <v>1</v>
@@ -43082,10 +43209,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C175" s="10" t="b">
         <v>1</v>
@@ -43093,10 +43220,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>479</v>
+        <v>350</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C176" s="10" t="b">
         <v>1</v>
@@ -43104,12 +43231,34 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="C177" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C178" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C179" s="10" t="b">
         <v>1</v>
       </c>
     </row>
